--- a/Documentation/Scenario_de_test.xlsx
+++ b/Documentation/Scenario_de_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pt05klk\Desktop\DossierTPI\Jeu_dechec_sur_Unity\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84FCF74-9E0C-457F-A652-721987559CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BE65C5-D040-4E70-AD72-40573FA4B6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
-  <si>
-    <t>Étape</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="67">
   <si>
     <t>Actions</t>
   </si>
@@ -54,21 +51,12 @@
     <t>Test de déplacement des pièces</t>
   </si>
   <si>
-    <t>La pièce reste sur ça case initiale et le tour du joueur ne change pas</t>
-  </si>
-  <si>
-    <t>Le joueur clique sur une pièce</t>
-  </si>
-  <si>
     <t>Mise en évidence des cases ou la pièce peux ce déplacer selon les règles des échecs</t>
   </si>
   <si>
     <t>Le joueur clique sur une case qui n'est pas mis en évidence</t>
   </si>
   <si>
-    <t>Le joueur clique sur une case mis en évidence</t>
-  </si>
-  <si>
     <t>Le joueur mets l'adversaire en échec et mat</t>
   </si>
   <si>
@@ -81,18 +69,9 @@
     <t>L'affichage décrit quel joueur a gagné la partie, et que c'est par échec et mat</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
     <t>Impossible de bouger les pièces</t>
   </si>
   <si>
-    <t>Le joueur adverse tente de bouger des pièces</t>
-  </si>
-  <si>
     <t>Test de détection du mat</t>
   </si>
   <si>
@@ -111,25 +90,13 @@
     <t>Le joueur clique sur le bouton "proposé nulle"</t>
   </si>
   <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
     <t>L'affichage de la proposition nulle s'affiche</t>
   </si>
   <si>
     <t>Le joueur adverse clique sur le bouton accepter</t>
   </si>
   <si>
-    <t>Le joueur tente de bouger des pièces</t>
-  </si>
-  <si>
     <t>Test de la capture des pièces</t>
-  </si>
-  <si>
-    <t>Le joueur déplace une pièce sur une pièce adverse</t>
   </si>
   <si>
     <t>La pièce adverse est supprimé</t>
@@ -145,13 +112,130 @@
 selon les standard des valeurs des pièces</t>
   </si>
   <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>La pièce ce déplace sur la case choisit</t>
-  </si>
-  <si>
     <t>Test de la promotion des pions</t>
+  </si>
+  <si>
+    <t>Le joueur capture une pièce adverse</t>
+  </si>
+  <si>
+    <t>Le joueur avance le pion sur le dernier rang de son côté</t>
+  </si>
+  <si>
+    <t>Le pion ce déplace sur la casse</t>
+  </si>
+  <si>
+    <t>Une séléction des pièces est affiché</t>
+  </si>
+  <si>
+    <t>Le joueur clique sur l'une des pièces affiché</t>
+  </si>
+  <si>
+    <t>Le pion est remplacé par la pièce sélectionner</t>
+  </si>
+  <si>
+    <t>Le tour change au joueur adverse</t>
+  </si>
+  <si>
+    <t>Impossible de déplacer les pièces</t>
+  </si>
+  <si>
+    <t>Test du grand roque</t>
+  </si>
+  <si>
+    <t>Le joueur clique sur le roi</t>
+  </si>
+  <si>
+    <t>Le joueur clique sur la case du grand roque</t>
+  </si>
+  <si>
+    <t>La case du grand roque est mise en évidence</t>
+  </si>
+  <si>
+    <t>Le roi est déplacé sur la case</t>
+  </si>
+  <si>
+    <t>La tour correspondante est déplacé de l'autre côté du roi</t>
+  </si>
+  <si>
+    <t>Test du petit roque</t>
+  </si>
+  <si>
+    <t>La case du petit roque est mise en évidence</t>
+  </si>
+  <si>
+    <t>Le joueur clique sur la case du petit roque</t>
+  </si>
+  <si>
+    <t>Mise en place</t>
+  </si>
+  <si>
+    <t>Le joueur à qui c'est le tour clique sur l'une de ces pièces</t>
+  </si>
+  <si>
+    <t>La pièce reste sur ça case initiale</t>
+  </si>
+  <si>
+    <t>Le joueur clique sur l'une de ces autres pièces</t>
+  </si>
+  <si>
+    <t>Le joueur clique sur une case mise en évidence</t>
+  </si>
+  <si>
+    <t>La pièce ce déplace sur cette case</t>
+  </si>
+  <si>
+    <t>Être dans une partie</t>
+  </si>
+  <si>
+    <t>Être dans une partie avec une position ou une pièce peut être capturé</t>
+  </si>
+  <si>
+    <t>Être dans une partie avec une position ou un pion est à une case de la promotion</t>
+  </si>
+  <si>
+    <t>les cases mises en évidences revienne à leur couleur d'origine</t>
+  </si>
+  <si>
+    <t>Être dans une partie avec une position ou le joeur peut mettre l'adverse en échec et mat au prochain coup</t>
+  </si>
+  <si>
+    <t>Le joueur adverse tente de déplacer les pièces</t>
+  </si>
+  <si>
+    <t>Être dans une partie avec une position ou le joeur peut mettre l'adverse en pat au prochain coup</t>
+  </si>
+  <si>
+    <t>Le joueur tente de bouger les pièces</t>
+  </si>
+  <si>
+    <t>Être dans une partie avec une position ou le joueur peut, dans les règles des échecs, faire le grand roque</t>
+  </si>
+  <si>
+    <t>Être dans une partie avec une position ou le joueur peut, dans les règles des échecs, faire le petit roque</t>
+  </si>
+  <si>
+    <t>Test du coup en passant</t>
+  </si>
+  <si>
+    <t>Être dans une partie avec une position ou le joueur peut, dans les règles des échecs, prendre un pion en passant</t>
+  </si>
+  <si>
+    <t>Le joueur clique sur le pion</t>
+  </si>
+  <si>
+    <t>La case pour prendre le pion adverse en passant est mise en évidence</t>
+  </si>
+  <si>
+    <t>Le joueur clique sur la case pour la prise en passant</t>
+  </si>
+  <si>
+    <t>Le pion ce déplace sur la case en passant</t>
+  </si>
+  <si>
+    <t>Le pion adverse du en passant est supprimé</t>
+  </si>
+  <si>
+    <t>Le pion pris est affiché dans les pièces capturés du joueur</t>
   </si>
 </sst>
 </file>
@@ -225,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -239,6 +323,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -249,7 +336,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="right" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -292,98 +387,126 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EC8EAF8-EE06-46C2-ADDC-3A6B5966AF89}" name="Table1" displayName="Table1" ref="D4:H7" totalsRowShown="0">
-  <autoFilter ref="D4:H7" xr:uid="{7EC8EAF8-EE06-46C2-ADDC-3A6B5966AF89}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EC8EAF8-EE06-46C2-ADDC-3A6B5966AF89}" name="Table1" displayName="Table1" ref="D4:H10" totalsRowShown="0">
+  <autoFilter ref="D4:H10" xr:uid="{7EC8EAF8-EE06-46C2-ADDC-3A6B5966AF89}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{893E0FC1-4089-42FC-AD6F-71E8861161A3}" name="Étape" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{893E0FC1-4089-42FC-AD6F-71E8861161A3}" name="Mise en place" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{94F30121-9A03-4996-A894-68269F1033EE}" name="Actions"/>
     <tableColumn id="3" xr3:uid="{0E46E4E0-2CF7-4760-9271-254CFD7922AE}" name="Résultats Attendus"/>
+    <tableColumn id="5" xr3:uid="{25989969-ED6B-4882-BCE8-F0BB4E89E3ED}" name="Réussi / Échoué"/>
     <tableColumn id="4" xr3:uid="{A0CB375A-79FE-4A73-B756-8AB8BC84697F}" name="Résultats obtenus"/>
-    <tableColumn id="5" xr3:uid="{25989969-ED6B-4882-BCE8-F0BB4E89E3ED}" name="Réussi / Échoué"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F63D140A-A865-4AF2-BEB0-FBB37A110F0F}" name="Table14" displayName="Table14" ref="D44:H48" totalsRowShown="0">
-  <autoFilter ref="D44:H48" xr:uid="{F63D140A-A865-4AF2-BEB0-FBB37A110F0F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F63D140A-A865-4AF2-BEB0-FBB37A110F0F}" name="Table14" displayName="Table14" ref="D33:H37" totalsRowShown="0">
+  <autoFilter ref="D33:H37" xr:uid="{F63D140A-A865-4AF2-BEB0-FBB37A110F0F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5CF1B1BC-326E-4FE0-8AF3-D7365F39F983}" name="Étape" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{5CF1B1BC-326E-4FE0-8AF3-D7365F39F983}" name="Mise en place" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{EDC9D6E8-5BA5-4094-85F6-46A07CB33A41}" name="Actions"/>
     <tableColumn id="3" xr3:uid="{8D56CDA8-EC3A-4BAA-A03F-50C3D6B82BDA}" name="Résultats Attendus"/>
+    <tableColumn id="5" xr3:uid="{D82D6127-9E11-4C60-BED0-7B71BFAA1A4E}" name="Réussi / Échoué"/>
     <tableColumn id="4" xr3:uid="{7B660A3A-217A-437B-AECD-25076A442A00}" name="Résultats obtenus"/>
-    <tableColumn id="5" xr3:uid="{D82D6127-9E11-4C60-BED0-7B71BFAA1A4E}" name="Réussi / Échoué"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{225A932B-E6A1-411E-B738-4EAEC2085193}" name="Table145" displayName="Table145" ref="D53:H57" totalsRowShown="0">
-  <autoFilter ref="D53:H57" xr:uid="{225A932B-E6A1-411E-B738-4EAEC2085193}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{225A932B-E6A1-411E-B738-4EAEC2085193}" name="Table145" displayName="Table145" ref="D42:H46" totalsRowShown="0">
+  <autoFilter ref="D42:H46" xr:uid="{225A932B-E6A1-411E-B738-4EAEC2085193}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A2B267D7-F7FA-434D-AED1-B1CC4062B932}" name="Étape" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{A2B267D7-F7FA-434D-AED1-B1CC4062B932}" name="Mise en place" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{E6C77034-1723-45BB-BF5F-6699BBBD51B6}" name="Actions"/>
     <tableColumn id="3" xr3:uid="{157C38A4-27E2-498D-A838-FDBE72563A2E}" name="Résultats Attendus"/>
+    <tableColumn id="5" xr3:uid="{3B7BC289-135C-4730-B271-7CA367AB7488}" name="Réussi / Échoué"/>
     <tableColumn id="4" xr3:uid="{0B98CA76-AF34-4604-ACF1-A4896DFFA70A}" name="Résultats obtenus"/>
-    <tableColumn id="5" xr3:uid="{3B7BC289-135C-4730-B271-7CA367AB7488}" name="Réussi / Échoué"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D959E76B-79AD-452B-8BE3-F3962840613B}" name="Table1456" displayName="Table1456" ref="D62:H67" totalsRowShown="0">
-  <autoFilter ref="D62:H67" xr:uid="{D959E76B-79AD-452B-8BE3-F3962840613B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D959E76B-79AD-452B-8BE3-F3962840613B}" name="Table1456" displayName="Table1456" ref="D51:H56" totalsRowShown="0">
+  <autoFilter ref="D51:H56" xr:uid="{D959E76B-79AD-452B-8BE3-F3962840613B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{58894852-99F3-4DF2-AB58-BD31F25E8507}" name="Étape" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{58894852-99F3-4DF2-AB58-BD31F25E8507}" name="Mise en place" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{47732074-AA99-4987-A16E-E27A49AF7518}" name="Actions"/>
     <tableColumn id="3" xr3:uid="{4A130B85-11A7-49B8-B0BA-204F718741AD}" name="Résultats Attendus"/>
+    <tableColumn id="5" xr3:uid="{021BEB14-CA09-4555-90F8-92A230D8EB5C}" name="Réussi / Échoué"/>
     <tableColumn id="4" xr3:uid="{5DEBE5D5-752C-4840-8FE2-C86DF935FC29}" name="Résultats obtenus"/>
-    <tableColumn id="5" xr3:uid="{021BEB14-CA09-4555-90F8-92A230D8EB5C}" name="Réussi / Échoué"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{338B8920-ED27-4EEC-9518-8BB476C3D981}" name="Table14567" displayName="Table14567" ref="D72:H77" totalsRowShown="0">
-  <autoFilter ref="D72:H77" xr:uid="{338B8920-ED27-4EEC-9518-8BB476C3D981}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{338B8920-ED27-4EEC-9518-8BB476C3D981}" name="Table14567" displayName="Table14567" ref="D61:H65" totalsRowShown="0">
+  <autoFilter ref="D61:H65" xr:uid="{338B8920-ED27-4EEC-9518-8BB476C3D981}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1F56966D-5C47-4308-A129-3C770309735D}" name="Étape" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{1F56966D-5C47-4308-A129-3C770309735D}" name="Mise en place" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{192B427A-17BB-4C80-BF42-2810FF145CBC}" name="Actions"/>
     <tableColumn id="3" xr3:uid="{F0890577-4D3A-4189-91F6-038D4791D244}" name="Résultats Attendus"/>
+    <tableColumn id="5" xr3:uid="{DCCB95D4-90D3-42E7-BEFA-0ED7C96BFC3E}" name="Réussi / Échoué"/>
     <tableColumn id="4" xr3:uid="{BE70FA60-EA18-4D42-BA2B-92AC17716759}" name="Résultats obtenus"/>
-    <tableColumn id="5" xr3:uid="{DCCB95D4-90D3-42E7-BEFA-0ED7C96BFC3E}" name="Réussi / Échoué"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F027BE10-F8FD-49F5-86CF-C3981EFAE238}" name="Table18" displayName="Table18" ref="D12:H16" totalsRowShown="0">
-  <autoFilter ref="D12:H16" xr:uid="{F027BE10-F8FD-49F5-86CF-C3981EFAE238}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F027BE10-F8FD-49F5-86CF-C3981EFAE238}" name="Table18" displayName="Table18" ref="D15:H20" totalsRowShown="0">
+  <autoFilter ref="D15:H20" xr:uid="{F027BE10-F8FD-49F5-86CF-C3981EFAE238}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{31A4FA45-6E89-4FB8-860A-DF00470CB2BC}" name="Étape" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{31A4FA45-6E89-4FB8-860A-DF00470CB2BC}" name="Mise en place" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{CD1113CD-20C5-48FC-9269-02B1F8224CE5}" name="Actions"/>
     <tableColumn id="3" xr3:uid="{F338AC39-B753-4721-87F4-AD044D72288D}" name="Résultats Attendus"/>
+    <tableColumn id="5" xr3:uid="{BBEF1C47-66EC-46E7-AA42-CE009546B767}" name="Réussi / Échoué"/>
     <tableColumn id="4" xr3:uid="{D4245F2F-88D9-44AA-BCFA-103C2C897375}" name="Résultats obtenus"/>
-    <tableColumn id="5" xr3:uid="{BBEF1C47-66EC-46E7-AA42-CE009546B767}" name="Réussi / Échoué"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{888E8265-682D-4544-82E3-C634830493D4}" name="Table1811" displayName="Table1811" ref="D21:H25" totalsRowShown="0">
-  <autoFilter ref="D21:H25" xr:uid="{888E8265-682D-4544-82E3-C634830493D4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{888E8265-682D-4544-82E3-C634830493D4}" name="Table1811" displayName="Table1811" ref="D24:H28" totalsRowShown="0">
+  <autoFilter ref="D24:H28" xr:uid="{888E8265-682D-4544-82E3-C634830493D4}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A4FCB8D0-1B6B-43E9-BDED-ADEF70BA2735}" name="Étape" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A4FCB8D0-1B6B-43E9-BDED-ADEF70BA2735}" name="Mise en place" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{9694C07B-A6E2-4E9F-A825-DBD4F70D9626}" name="Actions"/>
     <tableColumn id="3" xr3:uid="{EAB1964E-F951-4B48-8F30-6C51E3F69EEF}" name="Résultats Attendus"/>
+    <tableColumn id="5" xr3:uid="{0445631C-7DFE-4193-9A2C-1F5803E56961}" name="Réussi / Échoué"/>
     <tableColumn id="4" xr3:uid="{2EC28A2D-1E79-4F2A-8532-435360D89D99}" name="Résultats obtenus"/>
-    <tableColumn id="5" xr3:uid="{0445631C-7DFE-4193-9A2C-1F5803E56961}" name="Réussi / Échoué"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D668ADFF-FD85-41CD-BBDB-7141D04D9B30}" name="Table145673" displayName="Table145673" ref="D70:H74" totalsRowShown="0">
+  <autoFilter ref="D70:H74" xr:uid="{D668ADFF-FD85-41CD-BBDB-7141D04D9B30}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{67FE9B18-CE09-47C7-A399-D65EE0642AD5}" name="Mise en place" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{837C8331-BE6F-4995-99BA-9913AB980C72}" name="Actions"/>
+    <tableColumn id="3" xr3:uid="{F10E721A-8C74-48D1-A212-1E307BB33FBB}" name="Résultats Attendus"/>
+    <tableColumn id="5" xr3:uid="{31CC01D1-05AD-426B-8FCF-3CD0EEF137EA}" name="Réussi / Échoué"/>
+    <tableColumn id="4" xr3:uid="{0ED78B00-4FE9-47CC-8CAE-E0693B6611BD}" name="Résultats obtenus"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{84A22194-B5D3-4BB9-A33E-7F22D8875797}" name="Table1456739" displayName="Table1456739" ref="D79:H85" totalsRowShown="0">
+  <autoFilter ref="D79:H85" xr:uid="{84A22194-B5D3-4BB9-A33E-7F22D8875797}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{3BF1D171-AC7D-46BC-8CD8-AC0836BF9ADD}" name="Mise en place" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{90181CB7-001C-4D35-B13F-90961A5D9CE2}" name="Actions"/>
+    <tableColumn id="3" xr3:uid="{5211B869-7FDA-4441-9B13-6F70ABC64664}" name="Résultats Attendus"/>
+    <tableColumn id="5" xr3:uid="{EC0D0084-A720-4571-AB4E-7D615D24B0F8}" name="Réussi / Échoué"/>
+    <tableColumn id="4" xr3:uid="{8E7CB94E-757E-4D58-95BF-77D1B2C6A121}" name="Résultats obtenus"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -652,503 +775,586 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:H77"/>
+  <dimension ref="D2:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54" style="1" customWidth="1"/>
     <col min="5" max="5" width="54.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="79.140625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D5" s="1">
+      <c r="D5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="4:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="F19" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="4:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="4:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D6" s="1">
+    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D37" s="3"/>
+      <c r="E37" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="4:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" t="s">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="43" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D43" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
         <v>9</v>
       </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="1">
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D46" s="3"/>
+      <c r="E46" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="4:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D50" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D51" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="H51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D53" s="3"/>
+      <c r="E53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D56" s="3"/>
+      <c r="E56" t="s">
+        <v>56</v>
+      </c>
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="4:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D60" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D61" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>3</v>
+      </c>
+      <c r="H61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D62" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E62" t="s">
+        <v>35</v>
+      </c>
+      <c r="F62" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="4:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D12" s="2" t="s">
+    <row r="63" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D63" s="3"/>
+      <c r="E63" t="s">
+        <v>36</v>
+      </c>
+      <c r="F63" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D66" s="3"/>
+    </row>
+    <row r="68" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="4:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D69" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D70" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E70" t="s">
         <v>0</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F70" t="s">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G70" t="s">
+        <v>3</v>
+      </c>
+      <c r="H70" t="s">
         <v>2</v>
       </c>
-      <c r="G12" t="s">
+    </row>
+    <row r="71" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D71" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E71" t="s">
+        <v>35</v>
+      </c>
+      <c r="F71" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D72" s="3"/>
+      <c r="E72" t="s">
+        <v>42</v>
+      </c>
+      <c r="F72" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="4:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D78" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D79" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E79" t="s">
+        <v>0</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1</v>
+      </c>
+      <c r="G79" t="s">
         <v>3</v>
       </c>
-      <c r="H12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="H79" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="4:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D80" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E80" t="s">
+        <v>61</v>
+      </c>
+      <c r="F80" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D81" s="3"/>
+      <c r="E81" t="s">
+        <v>63</v>
+      </c>
+      <c r="F81" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F82" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F83" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="4:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F84" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F85" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="4:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="4:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D44" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44" t="s">
-        <v>2</v>
-      </c>
-      <c r="G44" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D45" s="1">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D48" s="3">
-        <v>2</v>
-      </c>
-      <c r="E48" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="4:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D52" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D53" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E53" t="s">
-        <v>1</v>
-      </c>
-      <c r="F53" t="s">
-        <v>2</v>
-      </c>
-      <c r="G53" t="s">
-        <v>3</v>
-      </c>
-      <c r="H53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D54" s="1">
-        <v>1</v>
-      </c>
-      <c r="E54" t="s">
-        <v>21</v>
-      </c>
-      <c r="F54" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D55" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D56" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F56" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D57" s="3">
-        <v>2</v>
-      </c>
-      <c r="E57" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="4:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D61" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-    </row>
-    <row r="62" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D62" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E62" t="s">
-        <v>1</v>
-      </c>
-      <c r="F62" t="s">
-        <v>2</v>
-      </c>
-      <c r="G62" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D63" s="1">
-        <v>1</v>
-      </c>
-      <c r="E63" t="s">
-        <v>24</v>
-      </c>
-      <c r="F63" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D64" s="3">
-        <v>2</v>
-      </c>
-      <c r="E64" t="s">
-        <v>28</v>
-      </c>
-      <c r="F64" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D65" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F65" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D66" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F66" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="67" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D67" s="3">
-        <v>3</v>
-      </c>
-      <c r="E67" t="s">
-        <v>29</v>
-      </c>
-      <c r="F67" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="4:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D71" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-    </row>
-    <row r="72" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D72" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E72" t="s">
-        <v>1</v>
-      </c>
-      <c r="F72" t="s">
-        <v>2</v>
-      </c>
-      <c r="G72" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D73" s="1">
-        <v>1</v>
-      </c>
-      <c r="E73" t="s">
-        <v>24</v>
-      </c>
-      <c r="F73" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="74" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D74" s="3">
-        <v>2</v>
-      </c>
-      <c r="E74" t="s">
-        <v>28</v>
-      </c>
-      <c r="F74" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D75" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F75" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D76" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F76" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="77" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D77" s="3">
-        <v>3</v>
-      </c>
-      <c r="E77" t="s">
-        <v>29</v>
-      </c>
-      <c r="F77" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="D71:H71"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D61:H61"/>
+  <mergeCells count="9">
+    <mergeCell ref="D14:H14"/>
     <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D78:H78"/>
+    <mergeCell ref="D60:H60"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="D41:H41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="D23:D25" numberStoredAsText="1"/>
-  </ignoredErrors>
-  <tableParts count="7">
+  <tableParts count="9">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -1156,6 +1362,8 @@
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>